--- a/tests/data/黑龙江省年度地区生产总值.xlsx
+++ b/tests/data/黑龙江省年度地区生产总值.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12280"/>
+    <workbookView windowWidth="22400" windowHeight="10080"/>
   </bookViews>
   <sheets>
-    <sheet name="JSON" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
-    <t>统计数据年份</t>
+    <t>年份</t>
   </si>
   <si>
     <t>地区生产总值(亿元)</t>
@@ -71,13 +71,13 @@
     <t>其他行业增加值(亿元)</t>
   </si>
   <si>
-    <t>第一产业占比</t>
-  </si>
-  <si>
-    <t>第二产业占比</t>
-  </si>
-  <si>
-    <t>第三产业占比</t>
+    <t>第一产业占比(%)</t>
+  </si>
+  <si>
+    <t>第二产业占比(%)</t>
+  </si>
+  <si>
+    <t>第三产业占比(%)</t>
   </si>
   <si>
     <t>2020</t>
@@ -1330,8 +1330,8 @@
   <sheetPr/>
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1347,7 +1347,9 @@
     <col min="11" max="11" width="27.1666666666667" customWidth="1"/>
     <col min="12" max="12" width="20.5" customWidth="1"/>
     <col min="13" max="14" width="22.6666666666667" customWidth="1"/>
-    <col min="15" max="17" width="13.8333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5833333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1666666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3893,7 +3895,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1 B1:D1 F1:N1" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:D1 F1:N1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>